--- a/published-data/fonds-solidarite/fds-2022-05-23/fonds-solidarite-volet-1-departemental-categorie-juridique-latest.xlsx
+++ b/published-data/fonds-solidarite/fds-2022-05-23/fonds-solidarite-volet-1-departemental-categorie-juridique-latest.xlsx
@@ -3919,13 +3919,13 @@
         </is>
       </c>
       <c r="C69" t="n">
-        <v>105826</v>
+        <v>105827</v>
       </c>
       <c r="D69" t="n">
         <v>22855</v>
       </c>
       <c r="E69" t="n">
-        <v>186640864</v>
+        <v>186642619</v>
       </c>
       <c r="F69" t="inlineStr">
         <is>
@@ -15649,13 +15649,13 @@
         </is>
       </c>
       <c r="C299" t="n">
-        <v>9029</v>
+        <v>9032</v>
       </c>
       <c r="D299" t="n">
         <v>1438</v>
       </c>
       <c r="E299" t="n">
-        <v>50036881</v>
+        <v>50063935</v>
       </c>
       <c r="F299" t="inlineStr">
         <is>
@@ -20596,13 +20596,13 @@
         </is>
       </c>
       <c r="C396" t="n">
-        <v>71268</v>
+        <v>71270</v>
       </c>
       <c r="D396" t="n">
         <v>12436</v>
       </c>
       <c r="E396" t="n">
-        <v>110298182</v>
+        <v>110301078</v>
       </c>
       <c r="F396" t="inlineStr">
         <is>
@@ -20749,13 +20749,13 @@
         </is>
       </c>
       <c r="C399" t="n">
-        <v>18863</v>
+        <v>18866</v>
       </c>
       <c r="D399" t="n">
         <v>3383</v>
       </c>
       <c r="E399" t="n">
-        <v>75211295</v>
+        <v>75241295</v>
       </c>
       <c r="F399" t="inlineStr">
         <is>
@@ -23554,13 +23554,13 @@
         </is>
       </c>
       <c r="C454" t="n">
-        <v>12238</v>
+        <v>12239</v>
       </c>
       <c r="D454" t="n">
         <v>2377</v>
       </c>
       <c r="E454" t="n">
-        <v>66590896</v>
+        <v>66592456</v>
       </c>
       <c r="F454" t="inlineStr">
         <is>
@@ -24727,13 +24727,13 @@
         </is>
       </c>
       <c r="C477" t="n">
-        <v>416674</v>
+        <v>416682</v>
       </c>
       <c r="D477" t="n">
         <v>70499</v>
       </c>
       <c r="E477" t="n">
-        <v>724909969</v>
+        <v>725016776</v>
       </c>
       <c r="F477" t="inlineStr">
         <is>
@@ -25084,13 +25084,13 @@
         </is>
       </c>
       <c r="C484" t="n">
-        <v>291982</v>
+        <v>291996</v>
       </c>
       <c r="D484" t="n">
         <v>42565</v>
       </c>
       <c r="E484" t="n">
-        <v>1769201775</v>
+        <v>1769311893</v>
       </c>
       <c r="F484" t="inlineStr">
         <is>
@@ -25135,13 +25135,13 @@
         </is>
       </c>
       <c r="C485" t="n">
-        <v>3049</v>
+        <v>3050</v>
       </c>
       <c r="D485" t="n">
         <v>420</v>
       </c>
       <c r="E485" t="n">
-        <v>99508589</v>
+        <v>99513059</v>
       </c>
       <c r="F485" t="inlineStr">
         <is>
@@ -25237,13 +25237,13 @@
         </is>
       </c>
       <c r="C487" t="n">
-        <v>230589</v>
+        <v>230601</v>
       </c>
       <c r="D487" t="n">
         <v>33849</v>
       </c>
       <c r="E487" t="n">
-        <v>1818119337</v>
+        <v>1818390513</v>
       </c>
       <c r="F487" t="inlineStr">
         <is>
@@ -25441,13 +25441,13 @@
         </is>
       </c>
       <c r="C491" t="n">
-        <v>12248</v>
+        <v>12249</v>
       </c>
       <c r="D491" t="n">
-        <v>1838</v>
+        <v>1839</v>
       </c>
       <c r="E491" t="n">
-        <v>75585376</v>
+        <v>75588324</v>
       </c>
       <c r="F491" t="inlineStr">
         <is>
@@ -26359,13 +26359,13 @@
         </is>
       </c>
       <c r="C509" t="n">
-        <v>62178</v>
+        <v>62179</v>
       </c>
       <c r="D509" t="n">
         <v>11277</v>
       </c>
       <c r="E509" t="n">
-        <v>298934889</v>
+        <v>298944889</v>
       </c>
       <c r="F509" t="inlineStr">
         <is>
@@ -26461,13 +26461,13 @@
         </is>
       </c>
       <c r="C511" t="n">
-        <v>71178</v>
+        <v>71186</v>
       </c>
       <c r="D511" t="n">
         <v>10924</v>
       </c>
       <c r="E511" t="n">
-        <v>286985272</v>
+        <v>287401054</v>
       </c>
       <c r="F511" t="inlineStr">
         <is>
@@ -26920,13 +26920,13 @@
         </is>
       </c>
       <c r="C520" t="n">
-        <v>56095</v>
+        <v>56097</v>
       </c>
       <c r="D520" t="n">
         <v>8769</v>
       </c>
       <c r="E520" t="n">
-        <v>253584096</v>
+        <v>253609056</v>
       </c>
       <c r="F520" t="inlineStr">
         <is>
@@ -27940,13 +27940,13 @@
         </is>
       </c>
       <c r="C540" t="n">
-        <v>76641</v>
+        <v>76643</v>
       </c>
       <c r="D540" t="n">
         <v>17494</v>
       </c>
       <c r="E540" t="n">
-        <v>114132538</v>
+        <v>114133158</v>
       </c>
       <c r="F540" t="inlineStr">
         <is>
@@ -28552,13 +28552,13 @@
         </is>
       </c>
       <c r="C552" t="n">
-        <v>39930</v>
+        <v>39931</v>
       </c>
       <c r="D552" t="n">
         <v>7155</v>
       </c>
       <c r="E552" t="n">
-        <v>60367935</v>
+        <v>60378307</v>
       </c>
       <c r="F552" t="inlineStr">
         <is>
@@ -28705,13 +28705,13 @@
         </is>
       </c>
       <c r="C555" t="n">
-        <v>18458</v>
+        <v>18459</v>
       </c>
       <c r="D555" t="n">
         <v>3296</v>
       </c>
       <c r="E555" t="n">
-        <v>73368683</v>
+        <v>73371235</v>
       </c>
       <c r="F555" t="inlineStr">
         <is>
@@ -34009,13 +34009,13 @@
         </is>
       </c>
       <c r="C659" t="n">
-        <v>163433</v>
+        <v>163434</v>
       </c>
       <c r="D659" t="n">
         <v>36203</v>
       </c>
       <c r="E659" t="n">
-        <v>278426270</v>
+        <v>278426721</v>
       </c>
       <c r="F659" t="inlineStr">
         <is>
@@ -43444,13 +43444,13 @@
         </is>
       </c>
       <c r="C844" t="n">
-        <v>58393</v>
+        <v>58394</v>
       </c>
       <c r="D844" t="n">
-        <v>11374</v>
+        <v>11375</v>
       </c>
       <c r="E844" t="n">
-        <v>290406601</v>
+        <v>290416601</v>
       </c>
       <c r="F844" t="inlineStr">
         <is>
@@ -43852,13 +43852,13 @@
         </is>
       </c>
       <c r="C852" t="n">
-        <v>27075</v>
+        <v>27077</v>
       </c>
       <c r="D852" t="n">
         <v>5532</v>
       </c>
       <c r="E852" t="n">
-        <v>133341228</v>
+        <v>133386949</v>
       </c>
       <c r="F852" t="inlineStr">
         <is>

--- a/published-data/fonds-solidarite/fds-2022-05-23/fonds-solidarite-volet-1-departemental-categorie-juridique-latest.xlsx
+++ b/published-data/fonds-solidarite/fds-2022-05-23/fonds-solidarite-volet-1-departemental-categorie-juridique-latest.xlsx
@@ -1165,13 +1165,13 @@
         </is>
       </c>
       <c r="C15" t="n">
-        <v>8966</v>
+        <v>8967</v>
       </c>
       <c r="D15" t="n">
         <v>1806</v>
       </c>
       <c r="E15" t="n">
-        <v>40509823</v>
+        <v>40512006</v>
       </c>
       <c r="F15" t="inlineStr">
         <is>
@@ -3256,13 +3256,13 @@
         </is>
       </c>
       <c r="C56" t="n">
-        <v>97641</v>
+        <v>97642</v>
       </c>
       <c r="D56" t="n">
         <v>18772</v>
       </c>
       <c r="E56" t="n">
-        <v>200343303</v>
+        <v>200344803</v>
       </c>
       <c r="F56" t="inlineStr">
         <is>
@@ -19066,13 +19066,13 @@
         </is>
       </c>
       <c r="C366" t="n">
-        <v>18845</v>
+        <v>18846</v>
       </c>
       <c r="D366" t="n">
         <v>3811</v>
       </c>
       <c r="E366" t="n">
-        <v>86393610</v>
+        <v>86458324</v>
       </c>
       <c r="F366" t="inlineStr">
         <is>
@@ -19882,13 +19882,13 @@
         </is>
       </c>
       <c r="C382" t="n">
-        <v>25392</v>
+        <v>25393</v>
       </c>
       <c r="D382" t="n">
         <v>5083</v>
       </c>
       <c r="E382" t="n">
-        <v>129195897</v>
+        <v>129197360</v>
       </c>
       <c r="F382" t="inlineStr">
         <is>
@@ -24013,13 +24013,13 @@
         </is>
       </c>
       <c r="C463" t="n">
-        <v>35051</v>
+        <v>35052</v>
       </c>
       <c r="D463" t="n">
         <v>7039</v>
       </c>
       <c r="E463" t="n">
-        <v>160291457</v>
+        <v>160307087</v>
       </c>
       <c r="F463" t="inlineStr">
         <is>
@@ -24727,13 +24727,13 @@
         </is>
       </c>
       <c r="C477" t="n">
-        <v>416682</v>
+        <v>416686</v>
       </c>
       <c r="D477" t="n">
         <v>70499</v>
       </c>
       <c r="E477" t="n">
-        <v>725016776</v>
+        <v>725025361</v>
       </c>
       <c r="F477" t="inlineStr">
         <is>
@@ -24982,13 +24982,13 @@
         </is>
       </c>
       <c r="C482" t="n">
-        <v>4145</v>
+        <v>4149</v>
       </c>
       <c r="D482" t="n">
         <v>521</v>
       </c>
       <c r="E482" t="n">
-        <v>69750394</v>
+        <v>69788450</v>
       </c>
       <c r="F482" t="inlineStr">
         <is>
@@ -25084,13 +25084,13 @@
         </is>
       </c>
       <c r="C484" t="n">
-        <v>291996</v>
+        <v>292004</v>
       </c>
       <c r="D484" t="n">
         <v>42565</v>
       </c>
       <c r="E484" t="n">
-        <v>1769311893</v>
+        <v>1769404137</v>
       </c>
       <c r="F484" t="inlineStr">
         <is>
@@ -25237,13 +25237,13 @@
         </is>
       </c>
       <c r="C487" t="n">
-        <v>230601</v>
+        <v>230605</v>
       </c>
       <c r="D487" t="n">
         <v>33849</v>
       </c>
       <c r="E487" t="n">
-        <v>1818390513</v>
+        <v>1818417273</v>
       </c>
       <c r="F487" t="inlineStr">
         <is>
@@ -26155,13 +26155,13 @@
         </is>
       </c>
       <c r="C505" t="n">
-        <v>184255</v>
+        <v>184256</v>
       </c>
       <c r="D505" t="n">
         <v>27737</v>
       </c>
       <c r="E505" t="n">
-        <v>332722779</v>
+        <v>332723639</v>
       </c>
       <c r="F505" t="inlineStr">
         <is>
@@ -26920,13 +26920,13 @@
         </is>
       </c>
       <c r="C520" t="n">
-        <v>56097</v>
+        <v>56099</v>
       </c>
       <c r="D520" t="n">
         <v>8769</v>
       </c>
       <c r="E520" t="n">
-        <v>253609056</v>
+        <v>253683580</v>
       </c>
       <c r="F520" t="inlineStr">
         <is>
@@ -27634,13 +27634,13 @@
         </is>
       </c>
       <c r="C534" t="n">
-        <v>44037</v>
+        <v>44039</v>
       </c>
       <c r="D534" t="n">
         <v>8566</v>
       </c>
       <c r="E534" t="n">
-        <v>219881172</v>
+        <v>219932787</v>
       </c>
       <c r="F534" t="inlineStr">
         <is>
@@ -28195,13 +28195,13 @@
         </is>
       </c>
       <c r="C545" t="n">
-        <v>25079</v>
+        <v>25080</v>
       </c>
       <c r="D545" t="n">
         <v>6170</v>
       </c>
       <c r="E545" t="n">
-        <v>92448942</v>
+        <v>92483431</v>
       </c>
       <c r="F545" t="inlineStr">
         <is>
@@ -47218,13 +47218,13 @@
         </is>
       </c>
       <c r="C918" t="n">
-        <v>79083</v>
+        <v>79085</v>
       </c>
       <c r="D918" t="n">
         <v>13383</v>
       </c>
       <c r="E918" t="n">
-        <v>391605598</v>
+        <v>391609737</v>
       </c>
       <c r="F918" t="inlineStr">
         <is>
@@ -47575,13 +47575,13 @@
         </is>
       </c>
       <c r="C925" t="n">
-        <v>12199</v>
+        <v>12200</v>
       </c>
       <c r="D925" t="n">
         <v>1959</v>
       </c>
       <c r="E925" t="n">
-        <v>76244390</v>
+        <v>76251330</v>
       </c>
       <c r="F925" t="inlineStr">
         <is>
